--- a/biology/Zoologie/Jules_Desneux/Jules_Desneux.xlsx
+++ b/biology/Zoologie/Jules_Desneux/Jules_Desneux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jules Desneux (20 avril 1885 à Bruxelles - 4 janvier 1962 à Bruxelles) est un entomologiste, dermatologue, historien de l'art et numismate franco-belge. Il se spécialise dans l'étude des termites et s'intéresse également aux coléoptères termitophiles et myrmécophiles, notamment les Paussinae. Il fut parmi les premiers à utiliser la radiologie pour étudier la structure des nids de termites.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Desneux est né à Bruxelles dans une famille d'artisans d'origine française. Son père était ébéniste et designer. Il a étudié les sciences humaines à l'Athénée royal d'Ixelles à partir de 1896 et à l'âge de 17 ans a rencontré Auguste Lameere et s'est renseigné sur les termites et a examiné certaines collections d'Afrique qui ont abouti à un article en 1902. En 1903, il a rejoint l'Université libre de Bruxelles et diplômé en médecine en 1910 spécialisé en dermatologie à Paris. Il enseigne la dermatologie à l'Université de 1911 à 1918 puis travaille à l'hôpital général de Bruxelles. Desneux était membre de la Société royale d'entomologie de Belgique depuis 1902[1],[2].
-Desneux a collectionné des pièces de monnaie et en 1930, il a décrit la monnaie grecque antique et a été membre de la société de numismatique, dont il a été le président de 1955 à 1957 et de nouveau de 1958 à 1961. Il s'est particulièrement intéressé à monnaies avec marquages de symboles d'insectes[3]. Il s'intéressait également à l'investigation artistique et utilisait la photographie infrarouge pour examiner les dessins cachés sous les peintures de Jan van Eyck[4].
-En examinant une restauration de La Vierge au chanoine Van der Paele de van Eyck, Desneux a noté que certaines lésions cutanées sur la lèvre inférieure avaient été repeintes. Il avait diagnostiqué l'état à partir d'une photographie pré-restauration comme une plaque kératosique, un carcinome épidermoïde malin potentiel pour lequel un dermatologue aurait prescrit une biopsie diagnostique[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Desneux est né à Bruxelles dans une famille d'artisans d'origine française. Son père était ébéniste et designer. Il a étudié les sciences humaines à l'Athénée royal d'Ixelles à partir de 1896 et à l'âge de 17 ans a rencontré Auguste Lameere et s'est renseigné sur les termites et a examiné certaines collections d'Afrique qui ont abouti à un article en 1902. En 1903, il a rejoint l'Université libre de Bruxelles et diplômé en médecine en 1910 spécialisé en dermatologie à Paris. Il enseigne la dermatologie à l'Université de 1911 à 1918 puis travaille à l'hôpital général de Bruxelles. Desneux était membre de la Société royale d'entomologie de Belgique depuis 1902,.
+Desneux a collectionné des pièces de monnaie et en 1930, il a décrit la monnaie grecque antique et a été membre de la société de numismatique, dont il a été le président de 1955 à 1957 et de nouveau de 1958 à 1961. Il s'est particulièrement intéressé à monnaies avec marquages de symboles d'insectes. Il s'intéressait également à l'investigation artistique et utilisait la photographie infrarouge pour examiner les dessins cachés sous les peintures de Jan van Eyck.
+En examinant une restauration de La Vierge au chanoine Van der Paele de van Eyck, Desneux a noté que certaines lésions cutanées sur la lèvre inférieure avaient été repeintes. Il avait diagnostiqué l'état à partir d'une photographie pré-restauration comme une plaque kératosique, un carcinome épidermoïde malin potentiel pour lequel un dermatologue aurait prescrit une biopsie diagnostique.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rigueur de Jean van Eyck, Éditions des Artistes, 1951, 76 p.</t>
         </is>
